--- a/TMP/fuel_scraping/fuel_scraping.xlsx
+++ b/TMP/fuel_scraping/fuel_scraping.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="scraping_fuel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scraping_fuel" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/TMP/fuel_scraping/fuel_scraping.xlsx
+++ b/TMP/fuel_scraping/fuel_scraping.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O833"/>
+  <dimension ref="A1:O847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46306,6 +46306,888 @@
         </is>
       </c>
     </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>ETANOL HIDRATADO</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>16477</v>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G834" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="H834" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J834" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M834" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N834" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>GASOLINA ADITIVADA</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>15160</v>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="G835" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H835" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J835" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M835" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N835" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O835" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>GASOLINA COMUM</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>19457</v>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="G836" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="H836" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J836" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M836" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O836" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>GLP</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>19774</v>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>R$/13kg</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>102.09</v>
+      </c>
+      <c r="F837" t="n">
+        <v>12.463</v>
+      </c>
+      <c r="G837" t="n">
+        <v>67</v>
+      </c>
+      <c r="H837" t="n">
+        <v>154</v>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J837" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M837" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O837" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>GNV</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>1463</v>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>R$/m³</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G838" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H838" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J838" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M838" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O838" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>OLEO DIESEL</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>8970</v>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="G839" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H839" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J839" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M839" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O839" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>OLEO DIESEL S10</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>14208</v>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G840" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H840" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J840" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M840" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O840" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>ETANOL HIDRATADO</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>16107</v>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="G841" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H841" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J841" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M841" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N841" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O841" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>GASOLINA ADITIVADA</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>14844</v>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="G842" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H842" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J842" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M842" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>GASOLINA COMUM</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>18955</v>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G843" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="H843" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J843" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M843" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O843" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>GLP</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>19099</v>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>R$/13kg</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>102.18</v>
+      </c>
+      <c r="F844" t="n">
+        <v>12.702</v>
+      </c>
+      <c r="G844" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="H844" t="n">
+        <v>154</v>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J844" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M844" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N844" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O844" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>GNV</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>1518</v>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>R$/m³</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G845" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H845" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J845" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M845" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N845" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O845" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>OLEO DIESEL</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>8743</v>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G846" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H846" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J846" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M846" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N846" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O846" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>OLEO DIESEL S10</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>13954</v>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>R$/l</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="G847" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H847" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J847" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M847" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O847" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
